--- a/ehdidata_2007to2020_cleaned20231020_description.xlsx
+++ b/ehdidata_2007to2020_cleaned20231020_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitan\Box\CPHSS\EHDI Seeser\Data\website_ready_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3750757-A3B7-477F-9576-3AACE25DE188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D12FA9-F4A7-474E-84A9-555631956383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-16320" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="234">
   <si>
     <t>Variable</t>
   </si>
@@ -64,81 +64,51 @@
     <t>NoInPaOut</t>
   </si>
   <si>
-    <t>Those who do not had any inpatient screening and passed outpatient screening</t>
-  </si>
-  <si>
     <t>No Initial/Referred Outpatient</t>
   </si>
   <si>
     <t>NoInReOut</t>
   </si>
   <si>
-    <t>Those who do not had any inpatient screening and failed outpatient screening</t>
-  </si>
-  <si>
     <t>Passed Initial/No Outpatient</t>
   </si>
   <si>
     <t>PaInNoOut</t>
   </si>
   <si>
-    <t>Passed inpatient screening and had no outpatient screening</t>
-  </si>
-  <si>
     <t>Passed Initial/Passed Outpatient</t>
   </si>
   <si>
     <t>PaInPaOut</t>
   </si>
   <si>
-    <t>Passed inpatient screening and passed outpatient screening</t>
-  </si>
-  <si>
     <t>Passed Initial/Referred Outpatient</t>
   </si>
   <si>
     <t>PaInReOut</t>
   </si>
   <si>
-    <t>Passed inpatient screening and failed outpatient screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referred Initial/No Outpatient  </t>
-  </si>
-  <si>
     <t>ReInNoOut</t>
   </si>
   <si>
-    <t>Failed inpatient screening and had no outpatient screening</t>
-  </si>
-  <si>
     <t>Referred Initial/Passed Outpatient</t>
   </si>
   <si>
     <t>ReInPaOut</t>
   </si>
   <si>
-    <t>Failed inpatient screening and passed outpatient screening</t>
-  </si>
-  <si>
     <t>Referred Initial/Referred Outpatient</t>
   </si>
   <si>
     <t>ReInReOut</t>
   </si>
   <si>
-    <t>Failed inpatient screening and failed outpatient screening</t>
-  </si>
-  <si>
     <t>Referred Initial/Straight to diagnostics evaluation</t>
   </si>
   <si>
     <t>ReInStDia</t>
   </si>
   <si>
-    <t>Failed inpatient screening and referred directly for diagnostic evaluation</t>
-  </si>
-  <si>
     <t>Total diagnosed</t>
   </si>
   <si>
@@ -184,15 +154,9 @@
     <t>HL3</t>
   </si>
   <si>
-    <t>Those diagnosed as having hearing loss before 3 months of age</t>
-  </si>
-  <si>
     <t>TotNoPas</t>
   </si>
   <si>
-    <t>Count of total not passing the last screening test</t>
-  </si>
-  <si>
     <t>TNscr</t>
   </si>
   <si>
@@ -208,9 +172,6 @@
     <t>TotPas</t>
   </si>
   <si>
-    <t>Count of total passing last screening test</t>
-  </si>
-  <si>
     <t>Tscr</t>
   </si>
   <si>
@@ -232,18 +193,12 @@
     <t>NHL</t>
   </si>
   <si>
-    <t>Those diagnosed as having no hearing loss</t>
-  </si>
-  <si>
     <t>POS</t>
   </si>
   <si>
     <t>Count of total who passed outpatient screening</t>
   </si>
   <si>
-    <t>This variable will help decision makers visualize outpatient screening burden</t>
-  </si>
-  <si>
     <t>Diagnosed (%)</t>
   </si>
   <si>
@@ -253,33 +208,21 @@
     <t>Percentage with either hearing loss or no hearing loss out of total not passed last screening tests</t>
   </si>
   <si>
-    <t>This variable can used as a measure of performance comparing states' and cities.</t>
-  </si>
-  <si>
     <t>PerDHL</t>
   </si>
   <si>
     <t>Percentage of hearing loss out of total with either hearing loss or no hearing loss</t>
   </si>
   <si>
-    <t>This parameter is helpful in tracing the burden of actual hearing loss cases.</t>
-  </si>
-  <si>
     <t>PerEI</t>
   </si>
   <si>
     <t>Percentage of enrolled in early intervention out of total with hearing loss</t>
   </si>
   <si>
-    <t>This variable will highlight the enrolled babies for intervention and those who missed enrolling despite having hearing loss.</t>
-  </si>
-  <si>
     <t>PerEI6</t>
   </si>
   <si>
-    <t>Percentage enrolled in early intervention before 6 months of age out of total with hearing loss</t>
-  </si>
-  <si>
     <t>This will enable decision-makers to monitor the early intervention program's efficacy and effectiveness on ground.</t>
   </si>
   <si>
@@ -292,9 +235,6 @@
     <t>Percentages of those diagnosed with hearing loss before 3 months of age out of total hearing loss</t>
   </si>
   <si>
-    <t>This variable will help decision-makers to focus on the interventions targetting children  before 3 months of age.</t>
-  </si>
-  <si>
     <t>Hearing loss prevalence</t>
   </si>
   <si>
@@ -304,21 +244,12 @@
     <t>Prevalence of total hearing loss</t>
   </si>
   <si>
-    <t>Decision makers can easily identify the regions with higher prevalence need additional investment in audiology services and  regional disparity.</t>
-  </si>
-  <si>
     <t>LTF</t>
   </si>
   <si>
-    <t>This variable will help track those who missed out of the screening and diagnostic program</t>
-  </si>
-  <si>
     <t>PerLTF</t>
   </si>
   <si>
-    <t>This variable will help policymakers to make adjustments in the existing policy to track back the lost babies not passed.</t>
-  </si>
-  <si>
     <t>Not passed inpatient screening</t>
   </si>
   <si>
@@ -352,9 +283,6 @@
     <t>Percentage of not passing outpatient screening out of actual outpatient screened</t>
   </si>
   <si>
-    <t>This variable will help to get the actual need for intervention services for babies across the region.</t>
-  </si>
-  <si>
     <t>Not screened (%)</t>
   </si>
   <si>
@@ -364,9 +292,6 @@
     <t>Percentage of not screened out of total newborn</t>
   </si>
   <si>
-    <t xml:space="preserve">This variable highlights babies who are not a beneficiary of early hearing loss detection program. </t>
-  </si>
-  <si>
     <t>Outpatient screened (%)</t>
   </si>
   <si>
@@ -376,21 +301,12 @@
     <t>Percentage of actual outpatient screened out of referred to outpatient</t>
   </si>
   <si>
-    <t>This variable accounts for those who reported to outpatient screening and indicate about those who did not report to outpatient screening.</t>
-  </si>
-  <si>
     <t>Dr</t>
   </si>
   <si>
-    <t>This variable will enable policymakers to analyze system burdens also states that need greater attention.</t>
-  </si>
-  <si>
     <t>EIr</t>
   </si>
   <si>
-    <t>This variable will help to determine the hearing loss intervention services need and help decision-makers to allocate resources wisely.</t>
-  </si>
-  <si>
     <t>LTFr</t>
   </si>
   <si>
@@ -400,9 +316,6 @@
     <t>CLEARr</t>
   </si>
   <si>
-    <t>This parameter will enable decision-makers to find those who are not helped by the program because of other numerous reasons that need to be explored.</t>
-  </si>
-  <si>
     <t>Referred direct to diagnostics (%)</t>
   </si>
   <si>
@@ -424,9 +337,6 @@
     <t>Count of total referred to the outpatient screening</t>
   </si>
   <si>
-    <t>This variable helps to directly track and compare outpatient load and keep track of those who not accessed outpatient services despite being referred.</t>
-  </si>
-  <si>
     <t>Referred to outpatient screening (%)</t>
   </si>
   <si>
@@ -436,9 +346,6 @@
     <t>Percentage of those referred to outpatient out of not passed inpatient screening</t>
   </si>
   <si>
-    <t>This will be a key figure to identify the babies who needed outpatient screening and requires special attention.</t>
-  </si>
-  <si>
     <t>EI</t>
   </si>
   <si>
@@ -457,9 +364,6 @@
     <t>NPOS</t>
   </si>
   <si>
-    <t>Count of total who do not pass outpatient screening</t>
-  </si>
-  <si>
     <t>Total outpatient screened</t>
   </si>
   <si>
@@ -472,24 +376,6 @@
     <t>PerTscr</t>
   </si>
   <si>
-    <t>This figure will help in calculating the efficiency of the screening program.</t>
-  </si>
-  <si>
-    <t>Percentages of total screened out of total newborn</t>
-  </si>
-  <si>
-    <t>This variable will be a key identifier for the utilization of early intervention program including part C and non-part C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This variable will be a key identifier for the utilization of early intervention program including part C and non-part C before 6 months of age </t>
-  </si>
-  <si>
-    <t>This variable is one of the pillar to visualize about the actual number of children need special attention out of the screening program who are potential suspected of having hearing loss</t>
-  </si>
-  <si>
-    <t>This variable will enable decision makers to help see the actual burden of outpatien screening services and weight between inpatient or outpatient services</t>
-  </si>
-  <si>
     <t>Total enrolled in EI part C</t>
   </si>
   <si>
@@ -499,9 +385,6 @@
     <t>Loss to follow-up (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Total not screened </t>
-  </si>
-  <si>
     <t>Total occurrent birth</t>
   </si>
   <si>
@@ -520,9 +403,6 @@
     <t>Enrolled in EI (%)</t>
   </si>
   <si>
-    <t>Enrolled in EI before 6 months of age  (%)</t>
-  </si>
-  <si>
     <t>Total screened (%)</t>
   </si>
   <si>
@@ -532,21 +412,12 @@
     <t>Total enrolled in EI before 6 months of age</t>
   </si>
   <si>
-    <t>Count of total loss to follow-up for various reasons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will help decision-makers to invest and policy decisions targeting babies who lost their follow-up. </t>
-  </si>
-  <si>
     <t>There are 55 unique values for state in each year: 50 states and DC (Alabama, Alaska, Arizona, Arkansas, California, Colorado, Connecticut, Delaware, District of Columbia, Florida, Georgia, Hawaii, Idaho, Illinois, Indiana, Iowa, Kansas, Kentucky, Louisiana, Maine, Maryland, Massachusetts, Michigan, Minnesota, Mississippi, Missouri, Montana, Nebraska, Nevada, New Hampshire, New Jersey, New Mexico, New York, North Carolina, North Dakota, Ohio, Oklahoma, Oregon, Pennsylvania, Rhode Island, South Carolina, South Dakota, Tennessee, Texas, Utah, Vermont, Virginia, Washington, West Virginia, Wisconsin, and Wyoming; with State Average, State Median, and State SD calculated based on state/DC data available in a year; and US based on all state and territory data available in a year</t>
   </si>
   <si>
     <t>Data from years 2007 through 2020</t>
   </si>
   <si>
-    <t>This variable gives an idea of states accounted for in the calculation</t>
-  </si>
-  <si>
     <t>This helps to know the years included in the calculation</t>
   </si>
   <si>
@@ -556,9 +427,6 @@
     <t>Diagnosis rate</t>
   </si>
   <si>
-    <t>Rate of hearing loss or no hearing loss per 1000 screened</t>
-  </si>
-  <si>
     <t>It was calculated using the formula (NHL + HL) / Tscr * 1000.</t>
   </si>
   <si>
@@ -568,9 +436,6 @@
     <t>Rate of not pass the last screening test per 1000 screened</t>
   </si>
   <si>
-    <t>This figure will help to find the rate of infants that have failed the last screening tests.</t>
-  </si>
-  <si>
     <t>It was calculated using the formula TotNoPas / Tscr * 1000.</t>
   </si>
   <si>
@@ -599,9 +464,6 @@
   </si>
   <si>
     <t>It was calculated using the formula EI / Tscr * 1000.</t>
-  </si>
-  <si>
-    <t>It was calculated using the formula Total Screened / Birth * 100.</t>
   </si>
   <si>
     <t>It was calculated using the formula TNscr / Birth * 100.</t>
@@ -681,68 +543,209 @@
     <t>Keeping track of infants who were not screened is crucial for ensuring comprehensive coverage.</t>
   </si>
   <si>
-    <t>This variable accounts for those children who by some reason had missed intital screening and will help the authority to address fixable causes.</t>
-  </si>
-  <si>
-    <t>Decision makers can a consious decision with the help of this variable as this variable highlight the children that need attention</t>
-  </si>
-  <si>
-    <t>This variable helps keep track of children that can be considered no any abnormalities</t>
-  </si>
-  <si>
-    <t>This variable is important in keeping track of children whom system should provide special attention</t>
-  </si>
-  <si>
     <t>Policy makers should make informed decision based on reason of no outpatient to increase further enrollement</t>
   </si>
   <si>
-    <t>This variable help track of the actual beneficiaries of  outpatient  service</t>
-  </si>
-  <si>
-    <t>This variable is of high importance as this tells us the burden of potential hearing loss cases</t>
-  </si>
-  <si>
-    <t>This variable help tack of resource allocation to the diagnostic services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monitoring this number says more about the program turnout rate and effectiveness </t>
   </si>
   <si>
     <t>This gives an idea of what was the last screening done and what was the turnout</t>
   </si>
   <si>
-    <t>This variable keep track of those children who are not part of this EHDI program. It needs policy and resources to include them as well</t>
-  </si>
-  <si>
     <t>Identifying the total number of infants diagnosed with hearing loss helps assess the impact of early intervention efforts.</t>
   </si>
   <si>
     <t>Knowing the number of infants diagnosed as not having hearing loss is important for program evaluation and resource allocation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total hearing loss diagnosed before 3 months of age </t>
-  </si>
-  <si>
-    <t>This age-stratified variable will help policy makers to intervene and address the hearing loss cases before 3 months of age</t>
-  </si>
-  <si>
-    <t>This variable helps the decision makers to allocate the resources for the enrollment and intervention services</t>
-  </si>
-  <si>
-    <t>This variabale help decision makers review the effectiveness of non-part C EI  service</t>
-  </si>
-  <si>
-    <t>This variable helps decision makers allocate resources for the part C and non-part C   services</t>
-  </si>
-  <si>
-    <t>Enrollment number from this variable helps make decision for the age group of children to target</t>
+    <t>Enrolled in EI before 6 months of age (%)</t>
+  </si>
+  <si>
+    <t>Total not screened</t>
+  </si>
+  <si>
+    <t>Referred Initial/No Outpatient</t>
+  </si>
+  <si>
+    <t>Total hearing loss diagnosed before 3 months of age</t>
+  </si>
+  <si>
+    <t>Rate of diagnosis of hearing loss or no hearing loss per 1000 screened</t>
+  </si>
+  <si>
+    <t>Percentage of total screened out of total newborn</t>
+  </si>
+  <si>
+    <t>Percentage of enrolled in early intervention before 6 months of age out of total with hearing loss</t>
+  </si>
+  <si>
+    <t>Count of total who did not pass outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who did not have any inpatient screening and passed outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who did not have any inpatient screening and failed outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who passed inpatient screening and passed outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who passed inpatient screening and failed outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who passed inpatient screening and had no outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who failed inpatient screening and had no outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who failed inpatient screening and passed outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who failed inpatient screening and failed outpatient screening</t>
+  </si>
+  <si>
+    <t>Count of who failed inpatient screening and referred directly for diagnostic evaluation</t>
+  </si>
+  <si>
+    <t>Count of who passed their last screening test</t>
+  </si>
+  <si>
+    <t>Count of who did not pass their last screening test</t>
+  </si>
+  <si>
+    <t>Those diagnosed as not having hearing loss</t>
+  </si>
+  <si>
+    <t>Those diagnosed before 3 months of age as having hearing loss</t>
+  </si>
+  <si>
+    <t>Count of who were lost to follow-up for various reasons</t>
+  </si>
+  <si>
+    <t>It was calculated using the formula Tscr / Birth * 100.</t>
+  </si>
+  <si>
+    <t>Data used as reported to CDC – except where all nine metrics were 0 or missing, then all are used as missing.</t>
+  </si>
+  <si>
+    <t>This metric gives an idea of states accounted for in the calculation</t>
+  </si>
+  <si>
+    <t>Decision makers can easily identify the regions with higher prevalence need additional investment in audiology services and regional disparity.</t>
+  </si>
+  <si>
+    <t>This metric will enable policymakers to analyze system burdens also states that need greater attention.</t>
+  </si>
+  <si>
+    <t>This will help to compare the rate of infants that have failed their last screening tests.</t>
+  </si>
+  <si>
+    <t>This will help decision-makers to invest and policy decisions focusing on babies who can be lost to follow-up.</t>
+  </si>
+  <si>
+    <t>This metric will enable decision-makers to find those who are not helped by the program because of other numerous reasons that need to be explored as they are lost to the entire system.</t>
+  </si>
+  <si>
+    <t>This metric will help to determine the hearing loss intervention services need and help decision-makers to allocate resources wisely.</t>
+  </si>
+  <si>
+    <t>This will help in calculating the efficiency of the screening program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metric highlights babies who are not a beneficiary of early hearing loss detection program. </t>
+  </si>
+  <si>
+    <t>This will be helpful to identify the babies who needed outpatient screening and requires special attention.</t>
+  </si>
+  <si>
+    <t>This metric accounts for those who reported to outpatient screening and indicate about those who did not report to outpatient screening.</t>
+  </si>
+  <si>
+    <t>This metric will help to get the actual need for intervention services for babies across the region.</t>
+  </si>
+  <si>
+    <t>This metric can used as a measure of performance comparing states' and cities.</t>
+  </si>
+  <si>
+    <t>This metric is helpful in tracing the burden of actual hearing loss cases.</t>
+  </si>
+  <si>
+    <t>This metric will help decision-makers to focus on the interventions targetting children  before 3 months of age.</t>
+  </si>
+  <si>
+    <t>This metric will help policymakers to make adjustments in the existing policy to track back the lost babies not passed.</t>
+  </si>
+  <si>
+    <t>This metric will highlight the enrolled babies for intervention and those who missed enrolling despite having hearing loss.</t>
+  </si>
+  <si>
+    <t>This metric helps to directly track and compare outpatient load and keep track of those who not accessed outpatient services despite being referred.</t>
+  </si>
+  <si>
+    <t>This metric will enable decision makers to help see the actual burden of outpatien screening services and weight between inpatient or outpatient services</t>
+  </si>
+  <si>
+    <t>This metric will help decision makers visualize outpatient screening burden</t>
+  </si>
+  <si>
+    <t>This metric is one of the pillar to visualize about the actual number of children need special attention out of the screening program who are potential suspected of having hearing loss</t>
+  </si>
+  <si>
+    <t>This metric will be a key identifier for the utilization of early intervention program including part C and non-part C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metric will be a key identifier for the utilization of early intervention program including part C and non-part C before 6 months of age </t>
+  </si>
+  <si>
+    <t>This metric accounts for those children who by some reason had missed intital screening and will help the authority to address fixable causes.</t>
+  </si>
+  <si>
+    <t>Decision makers can a consious decision with the help of this metric as this metric highlight the children that need attention</t>
+  </si>
+  <si>
+    <t>This metric helps keep track of children that can be considered no any abnormalities</t>
+  </si>
+  <si>
+    <t>This metric is important in keeping track of children whom system should provide special attention</t>
+  </si>
+  <si>
+    <t>This metric help track of the actual beneficiaries of  outpatient  service</t>
+  </si>
+  <si>
+    <t>This metric is of high importance as this tells us the burden of potential hearing loss cases</t>
+  </si>
+  <si>
+    <t>This metric help tack of resource allocation to the diagnostic services</t>
+  </si>
+  <si>
+    <t>This metric keep track of those children who are not part of this EHDI program. It needs policy and resources to include them as well</t>
+  </si>
+  <si>
+    <t>This age-stratified metric will help policy makers to intervene and address the hearing loss cases before 3 months of age</t>
+  </si>
+  <si>
+    <t>This metric will help track those who missed out of the screening and diagnostic program</t>
+  </si>
+  <si>
+    <t>This metric helps the decision makers to allocate the resources for the enrollment and intervention services</t>
+  </si>
+  <si>
+    <t>This metric help decision makers review the effectiveness of non-part C EI  service</t>
+  </si>
+  <si>
+    <t>This metric helps decision makers allocate resources for the part C and non-part C   services</t>
+  </si>
+  <si>
+    <t>Enrollment number from this metric helps make decision for the age group of children to target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +770,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -819,24 +828,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,63 +857,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFDADADA"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFDADADA"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1024,6 +979,63 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFDADADA"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDADADA"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1038,17 +1050,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
     <sortCondition ref="A2:A52"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable Abbreviation" dataDxfId="5" dataCellStyle="Heading 3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definition" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decision Maker Takeaway" dataDxfId="3" dataCellStyle="Heading 3"/>
-    <tableColumn id="9" xr3:uid="{1533AC6C-9FFD-4215-BB9B-4F8F48DC8798}" name="Formula" dataDxfId="2" dataCellStyle="Heading 3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable Abbreviation" dataDxfId="3" dataCellStyle="Heading 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definition" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decision Maker Takeaway" dataDxfId="1" dataCellStyle="Heading 3"/>
+    <tableColumn id="9" xr3:uid="{1533AC6C-9FFD-4215-BB9B-4F8F48DC8798}" name="Formula" dataDxfId="0" dataCellStyle="Heading 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1357,16 +1369,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
@@ -1395,14 +1407,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1410,504 +1422,504 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1918,342 +1930,343 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:D52">
     <sortCondition ref="A8:A52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
